--- a/Modelos em Python/30_Erros_validação.xlsx
+++ b/Modelos em Python/30_Erros_validação.xlsx
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.634979028929317</v>
+        <v>4.822434192805589</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3251095642901267</v>
+        <v>0.3387027756764421</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1130618106352729</v>
+        <v>0.1159183054839309</v>
       </c>
     </row>
     <row r="8">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.322422444036265</v>
+        <v>4.323835069219349</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3021097835002605</v>
+        <v>0.3022033138919779</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1214390481084008</v>
+        <v>0.1215078986787931</v>
       </c>
     </row>
     <row r="10">

--- a/Modelos em Python/30_Erros_validação.xlsx
+++ b/Modelos em Python/30_Erros_validação.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>Decision Tree Regressor</t>
         </is>
       </c>
       <c r="B10" t="n">

--- a/Modelos em Python/30_Erros_validação.xlsx
+++ b/Modelos em Python/30_Erros_validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.442141676203584</v>
+        <v>7.297562286869094</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3108020039741663</v>
+        <v>0.4554670287621683</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1091582341513664</v>
+        <v>0.178177496846669</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.327818041654213</v>
+        <v>7.5130111732311</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3024450686654133</v>
+        <v>0.4689416204244574</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1215895636685072</v>
+        <v>0.1829354214391814</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.374857430765786</v>
+        <v>7.191288947781342</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3058384541338912</v>
+        <v>0.4503349811205363</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1071557827580118</v>
+        <v>0.1755790678184002</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.351234924387716</v>
+        <v>7.298500652596678</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3040171639564437</v>
+        <v>0.4557755324829983</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1075940340811029</v>
+        <v>0.1783228580447483</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.877695215925161</v>
+        <v>7.270515643459234</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3428421181705755</v>
+        <v>0.4532464453166219</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1194465925163201</v>
+        <v>0.1767031179162418</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.822434192805589</v>
+        <v>7.37114946080074</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3387027756764421</v>
+        <v>0.4608094560168886</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1159183054839309</v>
+        <v>0.1798123923544088</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.312583813257672</v>
+        <v>7.427237951609592</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3014267165884862</v>
+        <v>0.4634056684312796</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1213845561613489</v>
+        <v>0.1811499733499296</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.323835069219349</v>
+        <v>7.43433234364942</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3022033138919779</v>
+        <v>0.4630267995663417</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1215078986787931</v>
+        <v>0.1816913240809284</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.328890552922555</v>
+        <v>6.724025118477194</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3799322129172439</v>
+        <v>0.5652495349517803</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09716680042837743</v>
+        <v>0.1630816379914531</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.112509482853714</v>
+        <v>14.03287561159981</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6129836742756155</v>
+        <v>1.018770628319533</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1950580247659495</v>
+        <v>0.3633296104087466</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.319642243680518</v>
+        <v>14.75235751844243</v>
       </c>
       <c r="C12" t="n">
-        <v>0.630502005677857</v>
+        <v>1.084961786690023</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1988899627511468</v>
+        <v>0.3794677847176551</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.528616728493468</v>
+        <v>10.43030442791959</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6500265256130546</v>
+        <v>0.7181181458486762</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1918772577960227</v>
+        <v>0.2329317117362308</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/30_Erros_validação.xlsx
+++ b/Modelos em Python/30_Erros_validação.xlsx
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.724025118477194</v>
+        <v>6.798075376860778</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5652495349517803</v>
+        <v>0.571470464380908</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1630816379914531</v>
+        <v>0.1617823658838295</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.03287561159981</v>
+        <v>13.79547719406647</v>
       </c>
       <c r="C11" t="n">
-        <v>1.018770628319533</v>
+        <v>0.9971900177871847</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3633296104087466</v>
+        <v>0.358127091114585</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.75235751844243</v>
+        <v>14.31184399976443</v>
       </c>
       <c r="C12" t="n">
-        <v>1.084961786690023</v>
+        <v>1.044251588233578</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3794677847176551</v>
+        <v>0.3692233050918616</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.43030442791959</v>
+        <v>10.48878813529452</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7181181458486762</v>
+        <v>0.7232410575208083</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2329317117362308</v>
+        <v>0.2339776943526035</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/30_Erros_validação.xlsx
+++ b/Modelos em Python/30_Erros_validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.88513468252418</v>
+        <v>13.84346352508132</v>
       </c>
       <c r="C11" t="n">
-        <v>1.00530873737934</v>
+        <v>1.001523517112715</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3600506369011563</v>
+        <v>0.3591248027124698</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30_Erros_validação.xlsx
+++ b/Modelos em Python/30_Erros_validação.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree Regressor</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Random Forest Regressor</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.84346352508132</v>
+        <v>13.890544599498</v>
       </c>
       <c r="C11" t="n">
-        <v>1.001523517112715</v>
+        <v>1.005801610466291</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3591248027124698</v>
+        <v>0.3601779840330202</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30_Erros_validação.xlsx
+++ b/Modelos em Python/30_Erros_validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.890544599498</v>
+        <v>13.90065287224062</v>
       </c>
       <c r="C11" t="n">
-        <v>1.005801610466291</v>
+        <v>1.006715806795757</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3601779840330202</v>
+        <v>0.3603790435046082</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30_Erros_validação.xlsx
+++ b/Modelos em Python/30_Erros_validação.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DTR</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,23 +597,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.90065287224062</v>
+        <v>13.89115841446296</v>
       </c>
       <c r="C11" t="n">
-        <v>1.006715806795757</v>
+        <v>1.005854114252216</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3603790435046082</v>
+        <v>0.3601700729178989</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBRegressor</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -629,7 +629,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LGBMRegressor</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/30_Erros_validação.xlsx
+++ b/Modelos em Python/30_Erros_validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.297562286869094</v>
+        <v>7.293267987069782</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4554670287621683</v>
+        <v>0.4552125763069372</v>
       </c>
       <c r="D2" t="n">
-        <v>0.178177496846669</v>
+        <v>0.1781378839178672</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.446455562200917</v>
+        <v>7.447149382711594</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4636142986236833</v>
+        <v>0.4636690531519597</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1819960716416765</v>
+        <v>0.1820152858278063</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.191288947781342</v>
+        <v>7.022949083088529</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4503349811205363</v>
+        <v>0.4445323379328409</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1755790678184002</v>
+        <v>0.1638974062761289</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.298500652596678</v>
+        <v>7.293661581501685</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4557755324829983</v>
+        <v>0.4552543962017733</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1783228580447483</v>
+        <v>0.1781380518756362</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.270515643459234</v>
+        <v>7.252133204916563</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4532464453166219</v>
+        <v>0.4520878471553694</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1767031179162418</v>
+        <v>0.1762537555223479</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.37114946080074</v>
+        <v>7.276833523540454</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4608094560168886</v>
+        <v>0.4546603858095184</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1798123923544088</v>
+        <v>0.1768820489080492</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.429563380077438</v>
+        <v>7.427303393117743</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4624496102219421</v>
+        <v>0.4624549057760187</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1815356698987951</v>
+        <v>0.1816043310845717</v>
       </c>
     </row>
     <row r="9">
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.459094265020312</v>
+        <v>7.424171859689634</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4645372573546476</v>
+        <v>0.4622651253224556</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1824337130060442</v>
+        <v>0.1814404528858767</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,39 +597,39 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.89115841446296</v>
+        <v>13.85338890566137</v>
       </c>
       <c r="C11" t="n">
-        <v>1.005854114252216</v>
+        <v>1.002428542320818</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3601700729178989</v>
+        <v>0.3593627184467604</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.21554244901005</v>
+        <v>14.20470828699328</v>
       </c>
       <c r="C12" t="n">
-        <v>1.035593905353663</v>
+        <v>1.034658373009658</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3678782801616604</v>
+        <v>0.3673447153595614</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/30_Erros_validação.xlsx
+++ b/Modelos em Python/30_Erros_validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.293267987069782</v>
+        <v>14.58961615767464</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4552125763069372</v>
+        <v>0.4552298790719804</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1781378839178672</v>
+        <v>0.1781424152920301</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.447149382711594</v>
+        <v>14.89404432562022</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4636690531519597</v>
+        <v>0.463666624807713</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1820152858278063</v>
+        <v>0.1820153025461539</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.022949083088529</v>
+        <v>13.71135478229707</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4445323379328409</v>
+        <v>0.4328369254419783</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1638974062761289</v>
+        <v>0.1675205261702567</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.293661581501685</v>
+        <v>14.58816799497068</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4552543962017733</v>
+        <v>0.4552871225467471</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1781380518756362</v>
+        <v>0.178137191188197</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.252133204916563</v>
+        <v>14.5571826645735</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4520878471553694</v>
+        <v>0.453779322702502</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1762537555223479</v>
+        <v>0.1771093079664378</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.276833523540454</v>
+        <v>14.98582351241844</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4546603858095184</v>
+        <v>0.466090483711317</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1768820489080492</v>
+        <v>0.18201342235371</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.427303393117743</v>
+        <v>14.85689378023888</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4624549057760187</v>
+        <v>0.4625798571463478</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1816043310845717</v>
+        <v>0.1816763757650155</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.424171859689634</v>
+        <v>14.84253870965014</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4622651253224556</v>
+        <v>0.4621364154767469</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1814404528858767</v>
+        <v>0.1815009700453219</v>
       </c>
     </row>
     <row r="10">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.798075376860778</v>
+        <v>13.59615075372154</v>
       </c>
       <c r="C10" t="n">
         <v>0.571470464380908</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.85338890566137</v>
+        <v>27.73280655272261</v>
       </c>
       <c r="C11" t="n">
-        <v>1.002428542320818</v>
+        <v>1.003605397289901</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3593627184467604</v>
+        <v>0.3596308631578908</v>
       </c>
     </row>
     <row r="12">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.20470828699328</v>
+        <v>28.40941657398656</v>
       </c>
       <c r="C12" t="n">
         <v>1.034658373009658</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.45115379248832</v>
+        <v>20.90230758497665</v>
       </c>
       <c r="C13" t="n">
         <v>0.721298801716965</v>

--- a/Modelos em Python/30_Erros_validação.xlsx
+++ b/Modelos em Python/30_Erros_validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30_Erros_validação.xlsx
+++ b/Modelos em Python/30_Erros_validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
     </row>
     <row r="12">
